--- a/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -743,22 +743,22 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -1107,7 +1107,7 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>600</v>
@@ -1163,10 +1163,10 @@
         <v>-600</v>
       </c>
       <c r="H18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I18" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
@@ -1273,13 +1273,13 @@
         <v>-400</v>
       </c>
       <c r="G21" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="H21" s="3">
         <v>-500</v>
       </c>
       <c r="I21" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
@@ -1364,7 +1364,7 @@
         <v>-400</v>
       </c>
       <c r="F23" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-600</v>
@@ -1373,7 +1373,7 @@
         <v>-500</v>
       </c>
       <c r="I23" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
@@ -1505,7 +1505,7 @@
         <v>-400</v>
       </c>
       <c r="F26" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-600</v>
@@ -1514,7 +1514,7 @@
         <v>-500</v>
       </c>
       <c r="I26" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
@@ -1552,7 +1552,7 @@
         <v>-400</v>
       </c>
       <c r="F27" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-600</v>
@@ -1561,7 +1561,7 @@
         <v>-500</v>
       </c>
       <c r="I27" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
@@ -1834,7 +1834,7 @@
         <v>-400</v>
       </c>
       <c r="F33" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-600</v>
@@ -1843,7 +1843,7 @@
         <v>-500</v>
       </c>
       <c r="I33" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
@@ -1928,7 +1928,7 @@
         <v>-400</v>
       </c>
       <c r="F35" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-600</v>
@@ -1937,7 +1937,7 @@
         <v>-500</v>
       </c>
       <c r="I35" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
@@ -2309,7 +2309,7 @@
         <v>500</v>
       </c>
       <c r="I46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
@@ -2447,7 +2447,7 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -2679,7 +2679,7 @@
         <v>300</v>
       </c>
       <c r="G54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>700</v>
@@ -2758,7 +2758,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -2899,7 +2899,7 @@
         <v>1000</v>
       </c>
       <c r="E60" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F60" s="3">
         <v>1100</v>
@@ -2908,7 +2908,7 @@
         <v>800</v>
       </c>
       <c r="H60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
@@ -3181,13 +3181,13 @@
         <v>1000</v>
       </c>
       <c r="E66" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F66" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
@@ -3432,25 +3432,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="E72" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="F72" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="G72" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="H72" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="I72" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="J72" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="K72" s="3">
         <v>-3900</v>
@@ -3620,10 +3620,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E76" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="F76" s="3">
         <v>-800</v>
@@ -3772,7 +3772,7 @@
         <v>-400</v>
       </c>
       <c r="F81" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-600</v>
@@ -3781,7 +3781,7 @@
         <v>-500</v>
       </c>
       <c r="I81" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
@@ -4123,10 +4123,10 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
@@ -4578,7 +4578,7 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>

--- a/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>PDPTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,22 +751,22 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -773,24 +781,30 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>200</v>
+      </c>
+      <c r="S8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -802,10 +816,10 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -820,16 +834,22 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -870,13 +890,19 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,11 +1072,17 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,17 +1119,23 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1107,46 +1161,52 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
-        <v>700</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>500</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1214,52 @@
         <v>-300</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,55 +1326,67 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,8 +1432,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1361,34 +1447,34 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-600</v>
       </c>
       <c r="H23" s="3">
         <v>-500</v>
       </c>
       <c r="I23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
       <c r="N23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
@@ -1399,8 +1485,14 @@
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1502,34 +1606,34 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-600</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
       </c>
       <c r="I26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
       <c r="N26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
@@ -1540,8 +1644,14 @@
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1549,34 +1659,34 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-600</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
       </c>
       <c r="I27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
-      </c>
       <c r="N27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
@@ -1587,8 +1697,14 @@
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,8 +1962,14 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1831,34 +1977,34 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-600</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
       </c>
       <c r="I33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-300</v>
-      </c>
       <c r="N33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
@@ -1869,8 +2015,14 @@
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1925,34 +2083,34 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-600</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
       </c>
       <c r="I35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-300</v>
-      </c>
       <c r="N35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
@@ -1963,60 +2121,72 @@
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,16 +2225,18 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2071,37 +2245,43 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>300</v>
       </c>
       <c r="K41" s="3">
+        <v>200</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
-      </c>
-      <c r="L41" s="3">
-        <v>500</v>
       </c>
       <c r="M41" s="3">
         <v>300</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O41" s="3">
         <v>300</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
+        <v>300</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2156,7 +2342,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2180,22 +2366,28 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2262,42 +2460,48 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
@@ -2306,37 +2510,43 @@
         <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>500</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
+        <v>500</v>
+      </c>
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2424,13 +2640,19 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2450,7 +2672,7 @@
         <v>100</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
@@ -2468,16 +2690,22 @@
         <v>200</v>
       </c>
       <c r="O49" s="3">
+        <v>200</v>
+      </c>
+      <c r="P49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q49" s="3">
         <v>300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,16 +2910,22 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
@@ -2682,37 +2934,43 @@
         <v>300</v>
       </c>
       <c r="H54" s="3">
+        <v>300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>400</v>
+      </c>
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2758,25 +3020,25 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -2785,10 +3047,10 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -2796,32 +3058,38 @@
       <c r="Q57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>700</v>
+      </c>
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -2843,8 +3111,14 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2852,16 +3126,16 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -2869,11 +3143,11 @@
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2890,46 +3164,52 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
-        <v>700</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
+        <v>800</v>
+      </c>
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
@@ -2937,8 +3217,14 @@
       <c r="Q60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2955,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,34 +3482,40 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1100</v>
-      </c>
       <c r="G66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>900</v>
+      </c>
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
-        <v>800</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
@@ -3208,19 +3524,25 @@
         <v>300</v>
       </c>
       <c r="N66" s="3">
+        <v>300</v>
+      </c>
+      <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5700</v>
+        <v>-6400</v>
       </c>
       <c r="E72" s="3">
-        <v>-5500</v>
+        <v>-6200</v>
       </c>
       <c r="F72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="I72" s="3">
         <v>-5200</v>
       </c>
-      <c r="G72" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-600</v>
+        <v>1100</v>
       </c>
       <c r="E76" s="3">
-        <v>-1100</v>
+        <v>1300</v>
       </c>
       <c r="F76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>100</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
-        <v>100</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3769,34 +4159,34 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-600</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
       </c>
       <c r="I81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-300</v>
-      </c>
       <c r="N81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
@@ -3807,8 +4197,14 @@
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3865,16 +4263,22 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4123,13 +4557,13 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
@@ -4138,25 +4572,31 @@
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>-300</v>
-      </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4636,11 +5134,11 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4654,60 +5152,72 @@
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
-      </c>
       <c r="O102" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>300</v>
+      </c>
+      <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>PDPTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,10 +755,10 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
@@ -769,7 +773,7 @@
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -787,7 +791,7 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
@@ -795,19 +799,22 @@
       <c r="S8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -822,7 +829,7 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -840,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -848,8 +855,11 @@
       <c r="S9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,13 +906,16 @@
         <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,11 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1125,8 +1148,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,57 +1188,60 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
       </c>
       <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
         <v>-300</v>
@@ -1220,46 +1250,49 @@
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-600</v>
       </c>
       <c r="K18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
-        <v>-300</v>
-      </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
-        <v>-300</v>
-      </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
-      </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,40 +1378,40 @@
         <v>-200</v>
       </c>
       <c r="E21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
         <v>-300</v>
       </c>
       <c r="G21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-400</v>
       </c>
       <c r="I21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
-        <v>-300</v>
-      </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>-300</v>
-      </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
@@ -1383,10 +1420,13 @@
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1453,46 +1496,49 @@
         <v>-300</v>
       </c>
       <c r="G23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
-        <v>-300</v>
-      </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
-        <v>-300</v>
-      </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
-      </c>
       <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1612,46 +1664,49 @@
         <v>-300</v>
       </c>
       <c r="G26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
-        <v>-300</v>
-      </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
-        <v>-300</v>
-      </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
-      </c>
       <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1665,46 +1720,49 @@
         <v>-300</v>
       </c>
       <c r="G27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
-        <v>-300</v>
-      </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
-        <v>-300</v>
-      </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
-      </c>
       <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1983,46 +2056,49 @@
         <v>-300</v>
       </c>
       <c r="G33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
-        <v>-300</v>
-      </c>
       <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
-        <v>-300</v>
-      </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
-      </c>
       <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2089,104 +2168,110 @@
         <v>-300</v>
       </c>
       <c r="G35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
-        <v>-300</v>
-      </c>
       <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
-        <v>-300</v>
-      </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
-      </c>
       <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,20 +2313,21 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2251,37 +2338,40 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>300</v>
       </c>
       <c r="M41" s="3">
         <v>300</v>
       </c>
       <c r="N41" s="3">
+        <v>300</v>
+      </c>
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,20 +2423,23 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
@@ -2372,11 +2465,11 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2466,7 +2565,7 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2475,36 +2574,39 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
@@ -2516,37 +2618,40 @@
         <v>200</v>
       </c>
       <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
       </c>
       <c r="N46" s="3">
+        <v>400</v>
+      </c>
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,13 +2703,16 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2646,13 +2754,16 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2675,7 +2786,7 @@
         <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
@@ -2696,16 +2807,19 @@
         <v>200</v>
       </c>
       <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+      <c r="R49" s="3">
         <v>300</v>
-      </c>
-      <c r="R49" s="3">
-        <v>400</v>
       </c>
       <c r="S49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1900</v>
       </c>
-      <c r="F54" s="3">
-        <v>300</v>
-      </c>
       <c r="G54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
       </c>
       <c r="I54" s="3">
+        <v>300</v>
+      </c>
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>600</v>
       </c>
       <c r="M54" s="3">
         <v>600</v>
       </c>
       <c r="N54" s="3">
+        <v>600</v>
+      </c>
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>800</v>
       </c>
       <c r="R54" s="3">
         <v>800</v>
       </c>
       <c r="S54" s="3">
+        <v>800</v>
+      </c>
+      <c r="T54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,13 +3141,14 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3026,22 +3157,22 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3053,7 +3184,7 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,25 +3207,25 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
-        <v>800</v>
-      </c>
       <c r="H58" s="3">
+        <v>900</v>
+      </c>
+      <c r="I58" s="3">
         <v>700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>400</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3117,28 +3251,31 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
+      <c r="I59" s="3">
+        <v>200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -3149,8 +3286,8 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3170,40 +3307,43 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
-        <v>1100</v>
-      </c>
       <c r="I60" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -3212,19 +3352,22 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3247,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,37 +3643,40 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
@@ -3530,19 +3688,22 @@
         <v>300</v>
       </c>
       <c r="P66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>500</v>
       </c>
       <c r="R66" s="3">
         <v>500</v>
       </c>
       <c r="S66" s="3">
+        <v>500</v>
+      </c>
+      <c r="T66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6400</v>
+        <v>-5600</v>
       </c>
       <c r="E72" s="3">
-        <v>-6200</v>
+        <v>-5300</v>
       </c>
       <c r="F72" s="3">
-        <v>-6000</v>
+        <v>-5100</v>
       </c>
       <c r="G72" s="3">
         <v>-5800</v>
       </c>
       <c r="H72" s="3">
-        <v>-5400</v>
+        <v>-5800</v>
       </c>
       <c r="I72" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-5200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
-        <v>100</v>
-      </c>
       <c r="L76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M76" s="3">
         <v>300</v>
       </c>
       <c r="N76" s="3">
+        <v>300</v>
+      </c>
+      <c r="O76" s="3">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
-        <v>100</v>
-      </c>
       <c r="Q76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R76" s="3">
         <v>300</v>
       </c>
       <c r="S76" s="3">
+        <v>300</v>
+      </c>
+      <c r="T76" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4165,46 +4360,49 @@
         <v>-300</v>
       </c>
       <c r="G81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
-        <v>-300</v>
-      </c>
       <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
-        <v>-300</v>
-      </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
-      </c>
       <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4269,16 +4468,19 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>-300</v>
-      </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>-300</v>
-      </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,19 +5304,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1700</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
@@ -5082,40 +5328,43 @@
         <v>200</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>400</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5140,8 +5389,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
@@ -5158,8 +5407,8 @@
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5167,20 +5416,23 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5188,36 +5440,39 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>PDPTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,106 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>200</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
@@ -776,7 +779,7 @@
         <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -794,7 +797,7 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
@@ -802,22 +805,25 @@
       <c r="T8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -832,7 +838,7 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -858,8 +864,11 @@
       <c r="T9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,7 +876,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -909,13 +918,16 @@
         <v>100</v>
       </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,22 +1076,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1101,11 +1120,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1151,8 +1173,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,72 +1204,76 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
-      </c>
-      <c r="S17" s="3">
-        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
@@ -1253,46 +1282,49 @@
         <v>-300</v>
       </c>
       <c r="H18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
       </c>
       <c r="J18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-600</v>
       </c>
       <c r="L18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
-        <v>-300</v>
-      </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>-300</v>
-      </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,52 +1402,55 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-300</v>
-      </c>
       <c r="G21" s="3">
         <v>-300</v>
       </c>
       <c r="H21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-400</v>
       </c>
       <c r="J21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
-        <v>-300</v>
-      </c>
       <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
@@ -1423,10 +1459,13 @@
         <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,16 +1520,19 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
@@ -1499,46 +1541,49 @@
         <v>-300</v>
       </c>
       <c r="H23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
-        <v>-300</v>
-      </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>-300</v>
-      </c>
       <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,16 +1697,19 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
@@ -1667,54 +1718,57 @@
         <v>-300</v>
       </c>
       <c r="H26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
       <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
-        <v>-300</v>
-      </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>-300</v>
-      </c>
       <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
@@ -1723,46 +1777,49 @@
         <v>-300</v>
       </c>
       <c r="H27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
-        <v>-300</v>
-      </c>
       <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
-        <v>-300</v>
-      </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>-300</v>
-      </c>
       <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,16 +2110,19 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
@@ -2059,46 +2131,49 @@
         <v>-300</v>
       </c>
       <c r="H33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
       </c>
       <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
-        <v>-300</v>
-      </c>
       <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
-        <v>-300</v>
-      </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>-300</v>
-      </c>
       <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,16 +2228,19 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
@@ -2171,107 +2249,113 @@
         <v>-300</v>
       </c>
       <c r="H35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
       </c>
       <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
-        <v>-300</v>
-      </c>
       <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
-        <v>-300</v>
-      </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>-300</v>
-      </c>
       <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,23 +2399,24 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2341,37 +2427,40 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>300</v>
       </c>
       <c r="N41" s="3">
         <v>300</v>
       </c>
       <c r="O41" s="3">
+        <v>300</v>
+      </c>
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,14 +2527,14 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
@@ -2468,11 +2560,11 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2568,7 +2666,7 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2577,39 +2675,42 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
-        <v>1300</v>
-      </c>
       <c r="F46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G46" s="3">
         <v>1800</v>
-      </c>
-      <c r="G46" s="3">
-        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
@@ -2621,37 +2722,40 @@
         <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
       <c r="O46" s="3">
+        <v>400</v>
+      </c>
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
-      </c>
-      <c r="S46" s="3">
-        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,7 +2822,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2757,13 +2864,16 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2789,7 +2899,7 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
@@ -2810,16 +2920,19 @@
         <v>200</v>
       </c>
       <c r="R49" s="3">
+        <v>200</v>
+      </c>
+      <c r="S49" s="3">
         <v>300</v>
-      </c>
-      <c r="S49" s="3">
-        <v>400</v>
       </c>
       <c r="T49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
-        <v>1400</v>
-      </c>
       <c r="F54" s="3">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="G54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
-        <v>300</v>
-      </c>
       <c r="I54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
       </c>
       <c r="K54" s="3">
+        <v>400</v>
+      </c>
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>600</v>
       </c>
       <c r="N54" s="3">
         <v>600</v>
       </c>
       <c r="O54" s="3">
+        <v>600</v>
+      </c>
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
-      </c>
-      <c r="R54" s="3">
-        <v>800</v>
       </c>
       <c r="S54" s="3">
         <v>800</v>
       </c>
       <c r="T54" s="3">
+        <v>800</v>
+      </c>
+      <c r="U54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,7 +3281,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3160,22 +3290,22 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -3187,7 +3317,7 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3210,25 +3343,25 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>600</v>
-      </c>
       <c r="H58" s="3">
+        <v>700</v>
+      </c>
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3254,8 +3387,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,22 +3399,22 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
+      <c r="J59" s="3">
+        <v>200</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -3289,8 +3425,8 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,34 +3458,34 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
+        <v>300</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -3355,19 +3494,22 @@
         <v>200</v>
       </c>
       <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3393,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3800,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,31 +3812,31 @@
         <v>300</v>
       </c>
       <c r="E66" s="3">
+        <v>300</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
-        <v>1000</v>
-      </c>
       <c r="H66" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="I66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
@@ -3691,19 +3848,22 @@
         <v>300</v>
       </c>
       <c r="Q66" s="3">
+        <v>300</v>
+      </c>
+      <c r="R66" s="3">
         <v>400</v>
-      </c>
-      <c r="R66" s="3">
-        <v>500</v>
       </c>
       <c r="S66" s="3">
         <v>500</v>
       </c>
       <c r="T66" s="3">
+        <v>500</v>
+      </c>
+      <c r="U66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5600</v>
+        <v>-6100</v>
       </c>
       <c r="E72" s="3">
-        <v>-5300</v>
+        <v>-5800</v>
       </c>
       <c r="F72" s="3">
-        <v>-5100</v>
+        <v>-5500</v>
       </c>
       <c r="G72" s="3">
-        <v>-5800</v>
+        <v>-5200</v>
       </c>
       <c r="H72" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="I72" s="3">
-        <v>-5500</v>
+        <v>-6000</v>
       </c>
       <c r="J72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-5200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
-        <v>-800</v>
-      </c>
       <c r="J76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
-        <v>100</v>
-      </c>
       <c r="M76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N76" s="3">
         <v>300</v>
       </c>
       <c r="O76" s="3">
+        <v>300</v>
+      </c>
+      <c r="P76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
-        <v>100</v>
-      </c>
       <c r="R76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S76" s="3">
         <v>300</v>
       </c>
       <c r="T76" s="3">
+        <v>300</v>
+      </c>
+      <c r="U76" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,77 +4472,83 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
@@ -4363,46 +4557,49 @@
         <v>-300</v>
       </c>
       <c r="H81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
       </c>
       <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
-        <v>-300</v>
-      </c>
       <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
-        <v>-300</v>
-      </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>-300</v>
-      </c>
       <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4471,16 +4669,19 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,55 +4984,58 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>-300</v>
-      </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>-300</v>
-      </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,22 +5549,25 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>1700</v>
-      </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
@@ -5331,40 +5576,43 @@
         <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>400</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5392,8 +5640,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
@@ -5410,8 +5658,8 @@
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,13 +5679,13 @@
         <v>-300</v>
       </c>
       <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
-        <v>1500</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5443,36 +5694,39 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
@@ -1211,7 +1211,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
@@ -1223,13 +1223,13 @@
         <v>600</v>
       </c>
       <c r="H17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K17" s="3">
         <v>800</v>
@@ -1285,7 +1285,7 @@
         <v>-300</v>
       </c>
       <c r="I18" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
@@ -1429,7 +1429,7 @@
         <v>-400</v>
       </c>
       <c r="J21" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K21" s="3">
         <v>-600</v>
@@ -1529,7 +1529,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
         <v>-500</v>
@@ -1541,7 +1541,7 @@
         <v>-300</v>
       </c>
       <c r="H23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
@@ -1706,7 +1706,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
@@ -1718,7 +1718,7 @@
         <v>-300</v>
       </c>
       <c r="H26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
@@ -1765,7 +1765,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
         <v>-500</v>
@@ -1777,7 +1777,7 @@
         <v>-300</v>
       </c>
       <c r="H27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
@@ -2119,7 +2119,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
         <v>-500</v>
@@ -2131,7 +2131,7 @@
         <v>-300</v>
       </c>
       <c r="H33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
@@ -2237,7 +2237,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
         <v>-500</v>
@@ -2249,7 +2249,7 @@
         <v>-300</v>
       </c>
       <c r="H35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
@@ -2409,13 +2409,13 @@
         <v>700</v>
       </c>
       <c r="E41" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F41" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G41" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -2710,10 +2710,10 @@
         <v>1400</v>
       </c>
       <c r="G46" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
@@ -2825,7 +2825,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E54" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F54" s="3">
         <v>1500</v>
@@ -3287,7 +3287,7 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3296,7 +3296,7 @@
         <v>500</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
@@ -3464,13 +3464,13 @@
         <v>400</v>
       </c>
       <c r="G60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J60" s="3">
         <v>1200</v>
@@ -3818,7 +3818,7 @@
         <v>400</v>
       </c>
       <c r="G66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>1100</v>
@@ -3827,7 +3827,7 @@
         <v>1600</v>
       </c>
       <c r="J66" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K66" s="3">
         <v>900</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6100</v>
+        <v>-6400</v>
       </c>
       <c r="E72" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="F72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-5500</v>
       </c>
-      <c r="G72" s="3">
-        <v>-5200</v>
-      </c>
       <c r="H72" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-5900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-5700</v>
       </c>
       <c r="K72" s="3">
         <v>-5200</v>
@@ -4366,19 +4366,19 @@
         <v>800</v>
       </c>
       <c r="E76" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F76" s="3">
         <v>1100</v>
       </c>
       <c r="G76" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H76" s="3">
         <v>-700</v>
       </c>
       <c r="I76" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J76" s="3">
         <v>-900</v>
@@ -4545,7 +4545,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
         <v>-500</v>
@@ -4557,7 +4557,7 @@
         <v>-300</v>
       </c>
       <c r="H81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
@@ -4999,7 +4999,7 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
@@ -5561,7 +5561,7 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F100" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>PDPTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,100 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,16 +769,16 @@
         <v>500</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
@@ -782,10 +790,10 @@
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
@@ -800,16 +808,22 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>200</v>
+      </c>
+      <c r="W8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -820,17 +834,17 @@
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
@@ -841,10 +855,10 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -859,16 +873,22 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,14 +896,14 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
@@ -921,13 +941,19 @@
         <v>100</v>
       </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,22 +1101,28 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1093,11 +1133,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1123,11 +1163,17 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1176,17 +1222,23 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K17" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
       </c>
       <c r="M17" s="3">
+        <v>800</v>
+      </c>
+      <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>500</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
+        <v>500</v>
+      </c>
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
         <v>-500</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
-      </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,67 +1473,79 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
         <v>-500</v>
       </c>
       <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
-      </c>
       <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-600</v>
       </c>
       <c r="L21" s="3">
         <v>-500</v>
       </c>
       <c r="M21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,55 +1603,61 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-500</v>
       </c>
       <c r="F23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G23" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="H23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-600</v>
       </c>
       <c r="L23" s="3">
         <v>-500</v>
       </c>
       <c r="M23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
-      </c>
       <c r="R23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
@@ -1582,8 +1668,14 @@
       <c r="U23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,55 +1798,61 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
       </c>
       <c r="F26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G26" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="H26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-600</v>
       </c>
       <c r="L26" s="3">
         <v>-500</v>
       </c>
       <c r="M26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
-      </c>
       <c r="R26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
@@ -1759,55 +1863,61 @@
       <c r="U26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-500</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G27" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="H27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-600</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
-      </c>
       <c r="R27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
@@ -1818,8 +1928,14 @@
       <c r="U27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,55 +2253,61 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-500</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G33" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="H33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-600</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
-      </c>
       <c r="R33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
@@ -2172,8 +2318,14 @@
       <c r="U33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,55 +2383,61 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-500</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G35" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="H35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-600</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
-      </c>
       <c r="R35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
@@ -2290,72 +2448,84 @@
       <c r="U35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,28 +2572,30 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1300</v>
-      </c>
       <c r="G41" s="3">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2430,37 +2604,43 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>300</v>
       </c>
       <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
-      </c>
-      <c r="P41" s="3">
-        <v>500</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="S41" s="3">
         <v>300</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
+        <v>300</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,19 +2698,25 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -2539,7 +2725,7 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2563,22 +2749,28 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2828,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2669,54 +2867,60 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1900</v>
-      </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
@@ -2725,37 +2929,43 @@
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
-      </c>
-      <c r="S46" s="3">
-        <v>500</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
       <c r="U46" s="3">
+        <v>500</v>
+      </c>
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,22 +3023,28 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2867,13 +3083,19 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2902,10 +3124,10 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
@@ -2923,16 +3145,22 @@
         <v>200</v>
       </c>
       <c r="S49" s="3">
+        <v>200</v>
+      </c>
+      <c r="T49" s="3">
+        <v>200</v>
+      </c>
+      <c r="U49" s="3">
         <v>300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,28 +3413,34 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H54" s="3">
         <v>1400</v>
       </c>
-      <c r="F54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>400</v>
-      </c>
       <c r="I54" s="3">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
@@ -3197,37 +3449,43 @@
         <v>400</v>
       </c>
       <c r="L54" s="3">
+        <v>400</v>
+      </c>
+      <c r="M54" s="3">
+        <v>400</v>
+      </c>
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,46 +3532,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
-      </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -3320,10 +3582,10 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
@@ -3331,8 +3593,14 @@
       <c r="U57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+      <c r="W57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3346,29 +3614,29 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
+        <v>900</v>
+      </c>
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
-        <v>900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>700</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -3390,8 +3658,14 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3399,10 +3673,10 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -3414,13 +3688,13 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
+      <c r="L59" s="3">
+        <v>200</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
@@ -3428,11 +3702,11 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3449,8 +3723,14 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3458,49 +3738,49 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>300</v>
+      </c>
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
-        <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1100</v>
-      </c>
       <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
@@ -3508,8 +3788,14 @@
       <c r="U60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>400</v>
+      </c>
+      <c r="W60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3538,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -3567,8 +3853,14 @@
       <c r="U61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>100</v>
+      </c>
+      <c r="W61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,8 +4113,14 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3812,37 +4128,37 @@
         <v>300</v>
       </c>
       <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>300</v>
+      </c>
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
-        <v>700</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
+        <v>600</v>
+      </c>
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
@@ -3851,19 +4167,25 @@
         <v>300</v>
       </c>
       <c r="R66" s="3">
+        <v>300</v>
+      </c>
+      <c r="S66" s="3">
+        <v>300</v>
+      </c>
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5700</v>
       </c>
-      <c r="G72" s="3">
-        <v>-5500</v>
-      </c>
       <c r="H72" s="3">
-        <v>-6200</v>
+        <v>-5400</v>
       </c>
       <c r="I72" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>700</v>
+      </c>
+      <c r="F76" s="3">
         <v>800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H76" s="3">
         <v>1100</v>
       </c>
-      <c r="F76" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
-        <v>100</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="R76" s="3">
-        <v>100</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
+        <v>100</v>
+      </c>
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,119 +4853,131 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-500</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G81" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="H81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-600</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
-      </c>
       <c r="R81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
@@ -4598,8 +4988,14 @@
       <c r="U81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4672,16 +5070,22 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,40 +5403,46 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
-      </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-300</v>
@@ -5017,25 +5451,31 @@
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-300</v>
-      </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,13 +5497,15 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5116,8 +5558,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5243,14 +5703,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5293,8 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>1700</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5643,11 +6141,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
@@ -5661,72 +6159,84 @@
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-100</v>
-      </c>
       <c r="S102" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>300</v>
+      </c>
+      <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>PDPTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
@@ -796,7 +800,7 @@
         <v>200</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
@@ -814,7 +818,7 @@
         <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
         <v>200</v>
@@ -822,13 +826,16 @@
       <c r="W8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
@@ -840,13 +847,13 @@
         <v>300</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -861,7 +868,7 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -879,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
@@ -887,8 +894,11 @@
       <c r="W9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -902,11 +912,11 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
@@ -947,13 +957,16 @@
         <v>100</v>
       </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,25 +1124,28 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1139,8 +1159,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1169,11 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1228,8 +1251,8 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
+        <v>700</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
-        <v>800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
-        <v>600</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>900</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>500</v>
-      </c>
-      <c r="V17" s="3">
-        <v>400</v>
       </c>
       <c r="W17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,17 +1363,17 @@
         <v>-300</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
-        <v>-300</v>
-      </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
@@ -1351,46 +1381,49 @@
         <v>-300</v>
       </c>
       <c r="K18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-500</v>
       </c>
       <c r="M18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="N18" s="3">
         <v>-600</v>
       </c>
       <c r="O18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
-        <v>-300</v>
-      </c>
       <c r="S18" s="3">
         <v>-300</v>
       </c>
       <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>-300</v>
-      </c>
       <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,61 +1513,64 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>-300</v>
-      </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
-        <v>-300</v>
-      </c>
       <c r="T21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
@@ -1542,10 +1579,13 @@
         <v>-100</v>
       </c>
       <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,17 +1661,17 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
-        <v>-300</v>
-      </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
@@ -1636,46 +1679,49 @@
         <v>-300</v>
       </c>
       <c r="K23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-500</v>
       </c>
       <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
-        <v>-300</v>
-      </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
       <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>-300</v>
-      </c>
       <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,17 +1865,17 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-300</v>
-      </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
@@ -1831,46 +1883,49 @@
         <v>-300</v>
       </c>
       <c r="K26" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-500</v>
       </c>
       <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
-        <v>-300</v>
-      </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
       <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>-300</v>
-      </c>
       <c r="V26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,17 +1933,17 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-300</v>
-      </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
@@ -1896,46 +1951,49 @@
         <v>-300</v>
       </c>
       <c r="K27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
-        <v>-300</v>
-      </c>
       <c r="S27" s="3">
         <v>-300</v>
       </c>
       <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>-300</v>
-      </c>
       <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,17 +2341,17 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-300</v>
-      </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
@@ -2286,46 +2359,49 @@
         <v>-300</v>
       </c>
       <c r="K33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
-        <v>-300</v>
-      </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
       <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>-300</v>
-      </c>
       <c r="V33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,17 +2477,17 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-300</v>
-      </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
@@ -2416,116 +2495,122 @@
         <v>-300</v>
       </c>
       <c r="K35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
-        <v>-300</v>
-      </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
       <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>-300</v>
-      </c>
       <c r="V35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,32 +2660,33 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2610,37 +2697,40 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>300</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2713,23 +2806,23 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
@@ -2755,11 +2848,11 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2873,7 +2972,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2882,48 +2981,51 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1000</v>
       </c>
       <c r="F46" s="3">
         <v>1000</v>
       </c>
       <c r="G46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
-        <v>1300</v>
-      </c>
       <c r="I46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J46" s="3">
         <v>1800</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
@@ -2935,37 +3037,40 @@
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
       </c>
       <c r="R46" s="3">
+        <v>400</v>
+      </c>
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
-      </c>
-      <c r="V46" s="3">
-        <v>300</v>
       </c>
       <c r="W46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3041,13 +3149,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3089,13 +3197,16 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3130,7 +3241,7 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
@@ -3151,16 +3262,19 @@
         <v>200</v>
       </c>
       <c r="U49" s="3">
+        <v>200</v>
+      </c>
+      <c r="V49" s="3">
         <v>300</v>
-      </c>
-      <c r="V49" s="3">
-        <v>400</v>
       </c>
       <c r="W49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,31 +3542,34 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1100</v>
       </c>
       <c r="F54" s="3">
         <v>1100</v>
       </c>
       <c r="G54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
-        <v>1400</v>
-      </c>
       <c r="I54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J54" s="3">
         <v>1900</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
@@ -3455,37 +3581,40 @@
         <v>400</v>
       </c>
       <c r="N54" s="3">
+        <v>400</v>
+      </c>
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>600</v>
       </c>
       <c r="Q54" s="3">
         <v>600</v>
       </c>
       <c r="R54" s="3">
+        <v>600</v>
+      </c>
+      <c r="S54" s="3">
         <v>900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>600</v>
-      </c>
-      <c r="U54" s="3">
-        <v>800</v>
       </c>
       <c r="V54" s="3">
         <v>800</v>
       </c>
       <c r="W54" s="3">
+        <v>800</v>
+      </c>
+      <c r="X54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,7 +3674,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3552,7 +3683,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3561,10 +3692,10 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
@@ -3573,10 +3704,10 @@
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -3588,7 +3719,7 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3620,25 +3754,25 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>400</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,31 +3810,31 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
+      <c r="M59" s="3">
+        <v>200</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
@@ -3708,8 +3845,8 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3729,52 +3866,55 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
       </c>
       <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>800</v>
       </c>
       <c r="N60" s="3">
         <v>800</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
       <c r="Q60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
@@ -3783,19 +3923,22 @@
         <v>200</v>
       </c>
       <c r="T60" s="3">
+        <v>200</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3830,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,49 +4274,52 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
       </c>
       <c r="H66" s="3">
+        <v>300</v>
+      </c>
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
@@ -4173,19 +4331,22 @@
         <v>300</v>
       </c>
       <c r="T66" s="3">
+        <v>300</v>
+      </c>
+      <c r="U66" s="3">
         <v>400</v>
-      </c>
-      <c r="U66" s="3">
-        <v>500</v>
       </c>
       <c r="V66" s="3">
         <v>500</v>
       </c>
       <c r="W66" s="3">
+        <v>500</v>
+      </c>
+      <c r="X66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6500</v>
+        <v>-6800</v>
       </c>
       <c r="E72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6400</v>
       </c>
-      <c r="F72" s="3">
-        <v>-6000</v>
-      </c>
       <c r="G72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H72" s="3">
         <v>-5700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5400</v>
       </c>
-      <c r="I72" s="3">
-        <v>-5100</v>
-      </c>
       <c r="J72" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-5800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300</v>
+      </c>
+      <c r="E76" s="3">
         <v>500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
-        <v>100</v>
-      </c>
       <c r="P76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q76" s="3">
         <v>300</v>
       </c>
       <c r="R76" s="3">
+        <v>300</v>
+      </c>
+      <c r="S76" s="3">
         <v>600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
-      <c r="T76" s="3">
-        <v>100</v>
-      </c>
       <c r="U76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V76" s="3">
         <v>300</v>
       </c>
       <c r="W76" s="3">
+        <v>300</v>
+      </c>
+      <c r="X76" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,17 +5133,17 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-300</v>
-      </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
@@ -4956,46 +5151,49 @@
         <v>-300</v>
       </c>
       <c r="K81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
-        <v>-300</v>
-      </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
       <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>-300</v>
-      </c>
       <c r="V81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5076,16 +5275,19 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,25 +5623,28 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
@@ -5436,11 +5653,11 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>-300</v>
-      </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
@@ -5448,34 +5665,37 @@
         <v>-300</v>
       </c>
       <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
       <c r="S89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,16 +5719,17 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5709,11 +5939,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,22 +6299,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
@@ -6077,40 +6323,43 @@
         <v>200</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>400</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6147,8 +6396,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
@@ -6165,8 +6414,8 @@
       <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6174,31 +6423,34 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>-300</v>
-      </c>
       <c r="G102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
-        <v>1500</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -6207,36 +6459,39 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>PDPTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,133 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
@@ -803,7 +806,7 @@
         <v>200</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
@@ -821,7 +824,7 @@
         <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
         <v>200</v>
@@ -829,16 +832,19 @@
       <c r="X8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -850,13 +856,13 @@
         <v>300</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -871,7 +877,7 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -889,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
@@ -897,8 +903,11 @@
       <c r="X9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -915,11 +924,11 @@
         <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
@@ -960,13 +969,16 @@
         <v>100</v>
       </c>
       <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,17 +1157,17 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1162,8 +1181,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1192,11 +1211,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1254,8 +1276,8 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>8</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1311,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
-      </c>
-      <c r="W17" s="3">
-        <v>400</v>
       </c>
       <c r="X17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1366,17 +1395,17 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
@@ -1384,46 +1413,49 @@
         <v>-300</v>
       </c>
       <c r="L18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-500</v>
       </c>
       <c r="N18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="O18" s="3">
         <v>-600</v>
       </c>
       <c r="P18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
-      </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
-        <v>-300</v>
-      </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
       <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
-        <v>-300</v>
-      </c>
       <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,55 +1561,55 @@
         <v>-200</v>
       </c>
       <c r="E21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>-300</v>
-      </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
-      </c>
       <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
-        <v>-300</v>
-      </c>
       <c r="U21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="V21" s="3">
         <v>-100</v>
@@ -1582,10 +1618,13 @@
         <v>-100</v>
       </c>
       <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,29 +1691,32 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
       <c r="J23" s="3">
         <v>-300</v>
       </c>
@@ -1682,46 +1724,49 @@
         <v>-300</v>
       </c>
       <c r="L23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-500</v>
       </c>
       <c r="N23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
-      </c>
       <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
-        <v>-300</v>
-      </c>
       <c r="T23" s="3">
         <v>-300</v>
       </c>
       <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
-        <v>-300</v>
-      </c>
       <c r="W23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,29 +1904,32 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
       <c r="J26" s="3">
         <v>-300</v>
       </c>
@@ -1886,67 +1937,70 @@
         <v>-300</v>
       </c>
       <c r="L26" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-500</v>
       </c>
       <c r="N26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
-      </c>
       <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
-        <v>-300</v>
-      </c>
       <c r="T26" s="3">
         <v>-300</v>
       </c>
       <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
-        <v>-300</v>
-      </c>
       <c r="W26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
       <c r="J27" s="3">
         <v>-300</v>
       </c>
@@ -1954,46 +2008,49 @@
         <v>-300</v>
       </c>
       <c r="L27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-500</v>
       </c>
       <c r="N27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
-      </c>
       <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
-        <v>-300</v>
-      </c>
       <c r="T27" s="3">
         <v>-300</v>
       </c>
       <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
-        <v>-300</v>
-      </c>
       <c r="W27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,29 +2401,32 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
@@ -2362,46 +2434,49 @@
         <v>-300</v>
       </c>
       <c r="L33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-500</v>
       </c>
       <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
-      </c>
       <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
-        <v>-300</v>
-      </c>
       <c r="T33" s="3">
         <v>-300</v>
       </c>
       <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
-        <v>-300</v>
-      </c>
       <c r="W33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,29 +2543,32 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
@@ -2498,119 +2576,125 @@
         <v>-300</v>
       </c>
       <c r="L35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-500</v>
       </c>
       <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
-      </c>
       <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
-        <v>-300</v>
-      </c>
       <c r="T35" s="3">
         <v>-300</v>
       </c>
       <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
-        <v>-300</v>
-      </c>
       <c r="W35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,35 +2746,36 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2700,37 +2786,40 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>300</v>
       </c>
       <c r="R41" s="3">
         <v>300</v>
       </c>
       <c r="S41" s="3">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2809,23 +2901,23 @@
         <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
@@ -2851,11 +2943,11 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2975,7 +3073,7 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2984,51 +3082,54 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1000</v>
       </c>
       <c r="G46" s="3">
         <v>1000</v>
       </c>
       <c r="H46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
@@ -3040,37 +3141,40 @@
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
       </c>
       <c r="S46" s="3">
+        <v>400</v>
+      </c>
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
-      </c>
-      <c r="W46" s="3">
-        <v>300</v>
       </c>
       <c r="X46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3152,13 +3259,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3200,13 +3307,16 @@
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3244,7 +3354,7 @@
         <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
@@ -3265,16 +3375,19 @@
         <v>200</v>
       </c>
       <c r="V49" s="3">
+        <v>200</v>
+      </c>
+      <c r="W49" s="3">
         <v>300</v>
-      </c>
-      <c r="W49" s="3">
-        <v>400</v>
       </c>
       <c r="X49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,34 +3667,37 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1100</v>
       </c>
       <c r="G54" s="3">
         <v>1100</v>
       </c>
       <c r="H54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>400</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
@@ -3584,37 +3709,40 @@
         <v>400</v>
       </c>
       <c r="O54" s="3">
+        <v>400</v>
+      </c>
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>600</v>
       </c>
       <c r="R54" s="3">
         <v>600</v>
       </c>
       <c r="S54" s="3">
+        <v>600</v>
+      </c>
+      <c r="T54" s="3">
         <v>900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>600</v>
-      </c>
-      <c r="V54" s="3">
-        <v>800</v>
       </c>
       <c r="W54" s="3">
         <v>800</v>
       </c>
       <c r="X54" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,19 +3794,20 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3686,7 +3816,7 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -3695,10 +3825,10 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
@@ -3707,10 +3837,10 @@
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
@@ -3722,7 +3852,7 @@
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3757,25 +3890,25 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>400</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3813,31 +3949,31 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
-        <v>100</v>
-      </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
+      <c r="N59" s="3">
+        <v>200</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
@@ -3848,8 +3984,8 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3869,55 +4005,58 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>800</v>
       </c>
       <c r="P60" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
       </c>
       <c r="R60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
@@ -3926,19 +4065,22 @@
         <v>200</v>
       </c>
       <c r="U60" s="3">
+        <v>200</v>
+      </c>
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3976,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,52 +4431,55 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
+        <v>300</v>
+      </c>
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
@@ -4334,19 +4491,22 @@
         <v>300</v>
       </c>
       <c r="U66" s="3">
+        <v>300</v>
+      </c>
+      <c r="V66" s="3">
         <v>400</v>
-      </c>
-      <c r="V66" s="3">
-        <v>500</v>
       </c>
       <c r="W66" s="3">
         <v>500</v>
       </c>
       <c r="X66" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
-        <v>100</v>
-      </c>
       <c r="Q76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R76" s="3">
         <v>300</v>
       </c>
       <c r="S76" s="3">
+        <v>300</v>
+      </c>
+      <c r="T76" s="3">
         <v>600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>800</v>
       </c>
-      <c r="U76" s="3">
-        <v>100</v>
-      </c>
       <c r="V76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W76" s="3">
         <v>300</v>
       </c>
       <c r="X76" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y76" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,102 +5239,108 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
@@ -5154,46 +5348,49 @@
         <v>-300</v>
       </c>
       <c r="L81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-500</v>
       </c>
       <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
-      </c>
       <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
-        <v>-300</v>
-      </c>
       <c r="T81" s="3">
         <v>-300</v>
       </c>
       <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
-        <v>-300</v>
-      </c>
       <c r="W81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5278,16 +5476,19 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,28 +5839,31 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
@@ -5656,11 +5872,11 @@
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>-300</v>
-      </c>
       <c r="N89" s="3">
         <v>-300</v>
       </c>
@@ -5668,34 +5884,37 @@
         <v>-300</v>
       </c>
       <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-300</v>
-      </c>
       <c r="R89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,19 +5939,20 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5942,11 +6171,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6302,22 +6547,22 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1700</v>
-      </c>
-      <c r="K100" s="3">
-        <v>200</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
@@ -6326,40 +6571,43 @@
         <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>400</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6399,8 +6647,8 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
@@ -6417,8 +6665,8 @@
       <c r="U101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -6426,35 +6674,38 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>-300</v>
-      </c>
       <c r="H102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -6462,36 +6713,39 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
@@ -1318,7 +1318,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
@@ -1327,13 +1327,13 @@
         <v>700</v>
       </c>
       <c r="G17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
@@ -3111,22 +3111,22 @@
         <v>400</v>
       </c>
       <c r="E46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F46" s="3">
         <v>700</v>
       </c>
       <c r="G46" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H46" s="3">
         <v>1000</v>
       </c>
       <c r="I46" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J46" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K46" s="3">
         <v>1800</v>
@@ -3679,7 +3679,7 @@
         <v>500</v>
       </c>
       <c r="E54" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F54" s="3">
         <v>800</v>
@@ -3694,7 +3694,7 @@
         <v>1300</v>
       </c>
       <c r="J54" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K54" s="3">
         <v>1900</v>
@@ -4014,7 +4014,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
@@ -4440,7 +4440,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="E72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="F72" s="3">
-        <v>-6600</v>
+        <v>-6400</v>
       </c>
       <c r="G72" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H72" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="I72" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="J72" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="K72" s="3">
         <v>-5200</v>
@@ -5863,7 +5863,7 @@
         <v>-300</v>
       </c>
       <c r="I89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>PDPTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,129 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>400</v>
       </c>
       <c r="G8" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
@@ -788,16 +796,16 @@
         <v>500</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
@@ -809,10 +817,10 @@
         <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
@@ -827,30 +835,36 @@
         <v>100</v>
       </c>
       <c r="W8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
       </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
@@ -859,17 +873,17 @@
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
@@ -880,10 +894,10 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -898,24 +912,30 @@
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -927,14 +947,14 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
@@ -972,13 +992,19 @@
         <v>100</v>
       </c>
       <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Y10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,34 +1180,40 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1184,11 +1224,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1214,11 +1254,17 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1279,17 +1325,23 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>8</v>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,34 +1364,36 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>700</v>
       </c>
       <c r="G17" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H17" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>900</v>
       </c>
       <c r="J17" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K17" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
@@ -1348,114 +1402,126 @@
         <v>600</v>
       </c>
       <c r="N17" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="O17" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
       </c>
       <c r="Q17" s="3">
+        <v>800</v>
+      </c>
+      <c r="R17" s="3">
+        <v>700</v>
+      </c>
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>500</v>
-      </c>
-      <c r="V17" s="3">
-        <v>300</v>
       </c>
       <c r="W17" s="3">
         <v>500</v>
       </c>
       <c r="X17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
       </c>
       <c r="J18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-300</v>
-      </c>
       <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,87 +1620,99 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-500</v>
-      </c>
       <c r="H21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-500</v>
       </c>
       <c r="J21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
-      </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-600</v>
       </c>
       <c r="P21" s="3">
         <v>-500</v>
       </c>
       <c r="Q21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-100</v>
-      </c>
       <c r="W21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1694,67 +1774,73 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-300</v>
-      </c>
       <c r="F23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="H23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K23" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-600</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
       </c>
       <c r="Q23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-300</v>
-      </c>
       <c r="V23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W23" s="3">
         <v>-300</v>
@@ -1765,8 +1851,14 @@
       <c r="Y23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,67 +2005,73 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-300</v>
-      </c>
       <c r="F26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="H26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K26" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-600</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-300</v>
-      </c>
       <c r="V26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W26" s="3">
         <v>-300</v>
@@ -1978,67 +2082,73 @@
       <c r="Y26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-300</v>
-      </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="H27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K27" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-600</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
       <c r="Q27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-300</v>
-      </c>
       <c r="V27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W27" s="3">
         <v>-300</v>
@@ -2049,8 +2159,14 @@
       <c r="Y27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2404,67 +2544,73 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-300</v>
-      </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="H33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
       </c>
       <c r="J33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K33" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-600</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
       <c r="Q33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-300</v>
-      </c>
       <c r="V33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W33" s="3">
         <v>-300</v>
@@ -2475,8 +2621,14 @@
       <c r="Y33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,67 +2698,73 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-300</v>
-      </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="H35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
       </c>
       <c r="J35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K35" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-600</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
       <c r="Q35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-300</v>
-      </c>
       <c r="V35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W35" s="3">
         <v>-300</v>
@@ -2617,84 +2775,96 @@
       <c r="Y35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2919,10 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2756,32 +2930,32 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2789,37 +2963,43 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>300</v>
       </c>
       <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
-      </c>
-      <c r="T41" s="3">
-        <v>500</v>
       </c>
       <c r="U41" s="3">
         <v>300</v>
       </c>
       <c r="V41" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="W41" s="3">
         <v>300</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,31 +3069,37 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -2922,7 +3108,7 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2946,22 +3132,28 @@
         <v>100</v>
       </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
-      <c r="W43" s="3">
-        <v>100</v>
-      </c>
       <c r="X43" s="3">
         <v>100</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3076,66 +3274,72 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
-        <v>500</v>
-      </c>
       <c r="F46" s="3">
+        <v>400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>600</v>
+      </c>
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1800</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
@@ -3144,37 +3348,43 @@
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
-      </c>
-      <c r="V46" s="3">
-        <v>300</v>
-      </c>
-      <c r="W46" s="3">
-        <v>500</v>
       </c>
       <c r="X46" s="3">
         <v>300</v>
       </c>
       <c r="Y46" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3262,16 +3478,16 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3310,18 +3526,24 @@
         <v>0</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -3357,10 +3579,10 @@
         <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
@@ -3378,16 +3600,22 @@
         <v>200</v>
       </c>
       <c r="W49" s="3">
+        <v>200</v>
+      </c>
+      <c r="X49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y49" s="3">
         <v>300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3916,14 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3679,31 +3931,31 @@
         <v>500</v>
       </c>
       <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>500</v>
+      </c>
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1900</v>
-      </c>
-      <c r="L54" s="3">
-        <v>400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
@@ -3712,37 +3964,43 @@
         <v>400</v>
       </c>
       <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>400</v>
+      </c>
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,49 +4066,49 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
@@ -3855,10 +4117,10 @@
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
@@ -3866,13 +4128,19 @@
       <c r="Y57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3893,29 +4161,29 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
@@ -3937,31 +4205,37 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -3973,13 +4247,13 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
+      <c r="P59" s="3">
+        <v>200</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
@@ -3987,11 +4261,11 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4008,19 +4282,25 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
@@ -4029,49 +4309,49 @@
         <v>300</v>
       </c>
       <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
       <c r="V60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="W60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>400</v>
@@ -4079,8 +4359,14 @@
       <c r="Y60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4121,10 +4407,10 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,19 +4744,25 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -4455,37 +4771,37 @@
         <v>300</v>
       </c>
       <c r="I66" s="3">
+        <v>400</v>
+      </c>
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
+        <v>300</v>
+      </c>
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
-      </c>
-      <c r="R66" s="3">
-        <v>300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>300</v>
       </c>
       <c r="T66" s="3">
         <v>300</v>
@@ -4494,19 +4810,25 @@
         <v>300</v>
       </c>
       <c r="V66" s="3">
+        <v>300</v>
+      </c>
+      <c r="W66" s="3">
+        <v>300</v>
+      </c>
+      <c r="X66" s="3">
         <v>400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6800</v>
+        <v>-7100</v>
       </c>
       <c r="E72" s="3">
-        <v>-6600</v>
+        <v>-7000</v>
       </c>
       <c r="F72" s="3">
-        <v>-6400</v>
+        <v>-6900</v>
       </c>
       <c r="G72" s="3">
-        <v>-6200</v>
+        <v>-6700</v>
       </c>
       <c r="H72" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="P72" s="3">
         <v>-5900</v>
       </c>
-      <c r="I72" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="Q72" s="3">
         <v>-5200</v>
       </c>
-      <c r="L72" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-3600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-3400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-2800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>100</v>
+      </c>
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
-        <v>100</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
+        <v>100</v>
+      </c>
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>800</v>
       </c>
-      <c r="V76" s="3">
-        <v>100</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y76" s="3">
         <v>300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,143 +5620,155 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-300</v>
-      </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="H81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
       </c>
       <c r="J81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K81" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-600</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
       <c r="Q81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-300</v>
-      </c>
       <c r="V81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W81" s="3">
         <v>-300</v>
@@ -5389,8 +5779,14 @@
       <c r="Y81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5479,16 +5877,22 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,52 +6270,58 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-300</v>
-      </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
-      </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R89" s="3">
         <v>-300</v>
@@ -5896,25 +6330,31 @@
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>-300</v>
-      </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,25 +6380,27 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,13 +6607,19 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6174,14 +6634,14 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,13 +7021,19 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6550,64 +7042,70 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6650,11 +7148,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>8</v>
@@ -6668,25 +7166,31 @@
       <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-200</v>
@@ -6695,57 +7199,63 @@
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
-      <c r="V102" s="3">
-        <v>-100</v>
-      </c>
       <c r="W102" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
         <v>-100</v>
       </c>
       <c r="Y102" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>PDPTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,150 +665,154 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42704</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
-      </c>
-      <c r="N8" s="3">
-        <v>200</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
@@ -823,7 +827,7 @@
         <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
@@ -841,7 +845,7 @@
         <v>100</v>
       </c>
       <c r="Y8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z8" s="3">
         <v>200</v>
@@ -849,25 +853,28 @@
       <c r="AA8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
       </c>
       <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
@@ -879,13 +886,13 @@
         <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -900,7 +907,7 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -918,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
         <v>100</v>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -935,11 +945,11 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
@@ -953,11 +963,11 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
@@ -998,13 +1008,16 @@
         <v>100</v>
       </c>
       <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,19 +1203,22 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1206,17 +1226,17 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1230,8 +1250,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1260,11 +1280,14 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1331,8 +1354,8 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>8</v>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>8</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,87 +1402,90 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F17" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>400</v>
       </c>
       <c r="AA17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
@@ -1464,17 +1494,17 @@
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
-        <v>-300</v>
-      </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
@@ -1482,46 +1512,49 @@
         <v>-300</v>
       </c>
       <c r="O18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-500</v>
       </c>
       <c r="Q18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="R18" s="3">
         <v>-600</v>
       </c>
       <c r="S18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
-        <v>-300</v>
-      </c>
       <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
-        <v>-300</v>
-      </c>
       <c r="W18" s="3">
         <v>-300</v>
       </c>
       <c r="X18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
-        <v>-300</v>
-      </c>
       <c r="Z18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,73 +1660,76 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
       <c r="H21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>-300</v>
-      </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3">
-        <v>-300</v>
-      </c>
       <c r="U21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
-        <v>-300</v>
-      </c>
       <c r="X21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Y21" s="3">
         <v>-100</v>
@@ -1701,10 +1738,13 @@
         <v>-100</v>
       </c>
       <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1714,8 +1754,8 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1780,38 +1820,41 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
-      </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
-        <v>-300</v>
-      </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
@@ -1819,46 +1862,49 @@
         <v>-300</v>
       </c>
       <c r="O23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
       </c>
       <c r="Q23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
-        <v>-300</v>
-      </c>
       <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
-        <v>-300</v>
-      </c>
       <c r="W23" s="3">
         <v>-300</v>
       </c>
       <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>-300</v>
-      </c>
       <c r="Z23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,38 +2060,41 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
-      </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
-        <v>-300</v>
-      </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
@@ -2050,76 +2102,79 @@
         <v>-300</v>
       </c>
       <c r="O26" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
-        <v>-300</v>
-      </c>
       <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
-        <v>-300</v>
-      </c>
       <c r="W26" s="3">
         <v>-300</v>
       </c>
       <c r="X26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
-        <v>-300</v>
-      </c>
       <c r="Z26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
-      </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
-        <v>-300</v>
-      </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
@@ -2127,46 +2182,49 @@
         <v>-300</v>
       </c>
       <c r="O27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
       <c r="Q27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
-        <v>-300</v>
-      </c>
       <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
-        <v>-300</v>
-      </c>
       <c r="W27" s="3">
         <v>-300</v>
       </c>
       <c r="X27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
-        <v>-300</v>
-      </c>
       <c r="Z27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,38 +2620,41 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
-      </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
-        <v>-300</v>
-      </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
@@ -2589,46 +2662,49 @@
         <v>-300</v>
       </c>
       <c r="O33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
       <c r="Q33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
-        <v>-300</v>
-      </c>
       <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
-        <v>-300</v>
-      </c>
       <c r="W33" s="3">
         <v>-300</v>
       </c>
       <c r="X33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
-        <v>-300</v>
-      </c>
       <c r="Z33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,38 +2780,41 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
-      </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
-        <v>-300</v>
-      </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
@@ -2743,128 +2822,134 @@
         <v>-300</v>
       </c>
       <c r="O35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
       <c r="Q35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
-        <v>-300</v>
-      </c>
       <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
-        <v>-300</v>
-      </c>
       <c r="W35" s="3">
         <v>-300</v>
       </c>
       <c r="X35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
-        <v>-300</v>
-      </c>
       <c r="Z35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42704</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,13 +3007,14 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2936,29 +3023,29 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2969,37 +3056,40 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
-      </c>
-      <c r="T41" s="3">
-        <v>300</v>
       </c>
       <c r="U41" s="3">
         <v>300</v>
       </c>
       <c r="V41" s="3">
+        <v>300</v>
+      </c>
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
-      <c r="Z41" s="3">
-        <v>100</v>
-      </c>
       <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3096,23 +3189,23 @@
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
@@ -3138,11 +3231,11 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
         <v>500</v>
       </c>
-      <c r="X43" s="3">
-        <v>100</v>
-      </c>
       <c r="Y43" s="3">
         <v>100</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3280,7 +3379,7 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3289,25 +3388,28 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3321,28 +3423,28 @@
         <v>400</v>
       </c>
       <c r="G46" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H46" s="3">
+        <v>500</v>
+      </c>
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
@@ -3354,37 +3456,40 @@
         <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
-      </c>
-      <c r="T46" s="3">
-        <v>400</v>
       </c>
       <c r="U46" s="3">
         <v>400</v>
       </c>
       <c r="V46" s="3">
+        <v>400</v>
+      </c>
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>500</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>300</v>
       </c>
       <c r="AA46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3484,13 +3592,13 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -3532,13 +3640,16 @@
         <v>0</v>
       </c>
       <c r="Z48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3546,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -3585,7 +3696,7 @@
         <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S49" s="3">
         <v>200</v>
@@ -3606,16 +3717,19 @@
         <v>200</v>
       </c>
       <c r="Y49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z49" s="3">
         <v>300</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>400</v>
       </c>
       <c r="AA49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3937,28 +4063,28 @@
         <v>500</v>
       </c>
       <c r="G54" s="3">
+        <v>500</v>
+      </c>
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
@@ -3970,37 +4096,40 @@
         <v>400</v>
       </c>
       <c r="R54" s="3">
+        <v>400</v>
+      </c>
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
-      </c>
-      <c r="T54" s="3">
-        <v>600</v>
       </c>
       <c r="U54" s="3">
         <v>600</v>
       </c>
       <c r="V54" s="3">
+        <v>600</v>
+      </c>
+      <c r="W54" s="3">
         <v>900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>600</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>800</v>
       </c>
       <c r="Z54" s="3">
         <v>800</v>
       </c>
       <c r="AA54" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4072,13 +4203,13 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -4087,7 +4218,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -4096,10 +4227,10 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
@@ -4108,10 +4239,10 @@
         <v>400</v>
       </c>
       <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
-      </c>
-      <c r="T57" s="3">
-        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
@@ -4123,7 +4254,7 @@
         <v>200</v>
       </c>
       <c r="X57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
@@ -4134,16 +4265,19 @@
       <c r="AA57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4167,25 +4301,25 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>400</v>
       </c>
       <c r="R58" s="3">
         <v>400</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4211,19 +4345,22 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -4232,7 +4369,7 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -4241,22 +4378,22 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
-        <v>100</v>
-      </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
+      <c r="Q59" s="3">
+        <v>200</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
@@ -4267,8 +4404,8 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4306,46 +4446,46 @@
         <v>400</v>
       </c>
       <c r="H60" s="3">
+        <v>400</v>
+      </c>
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
+        <v>300</v>
+      </c>
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>800</v>
       </c>
       <c r="R60" s="3">
         <v>800</v>
       </c>
       <c r="S60" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="T60" s="3">
         <v>300</v>
       </c>
       <c r="U60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
@@ -4354,19 +4494,22 @@
         <v>200</v>
       </c>
       <c r="X60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4413,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4768,43 +4926,43 @@
         <v>400</v>
       </c>
       <c r="H66" s="3">
+        <v>400</v>
+      </c>
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
       </c>
       <c r="L66" s="3">
+        <v>300</v>
+      </c>
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>300</v>
       </c>
       <c r="U66" s="3">
         <v>300</v>
@@ -4816,19 +4974,22 @@
         <v>300</v>
       </c>
       <c r="X66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y66" s="3">
         <v>400</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>500</v>
       </c>
       <c r="Z66" s="3">
         <v>500</v>
       </c>
       <c r="AA66" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,19 +5335,22 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7100</v>
+        <v>-6800</v>
       </c>
       <c r="E72" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="F72" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="G72" s="3">
         <v>-6700</v>
@@ -5188,61 +5362,64 @@
         <v>-6300</v>
       </c>
       <c r="J72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
+        <v>100</v>
+      </c>
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
-        <v>100</v>
-      </c>
       <c r="T76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U76" s="3">
         <v>300</v>
       </c>
       <c r="V76" s="3">
+        <v>300</v>
+      </c>
+      <c r="W76" s="3">
         <v>600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>800</v>
       </c>
-      <c r="X76" s="3">
-        <v>100</v>
-      </c>
       <c r="Y76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Z76" s="3">
         <v>300</v>
       </c>
       <c r="AA76" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB76" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,120 +5815,126 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42704</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
-      </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
-        <v>-300</v>
-      </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
@@ -5747,46 +5942,49 @@
         <v>-300</v>
       </c>
       <c r="O81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
       <c r="Q81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
-        <v>-300</v>
-      </c>
       <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
-        <v>-300</v>
-      </c>
       <c r="W81" s="3">
         <v>-300</v>
       </c>
       <c r="X81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
-        <v>-300</v>
-      </c>
       <c r="Z81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5883,16 +6082,19 @@
         <v>0</v>
       </c>
       <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,37 +6490,40 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
@@ -6315,11 +6532,11 @@
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
@@ -6327,34 +6544,37 @@
         <v>-300</v>
       </c>
       <c r="S89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>-300</v>
-      </c>
       <c r="U89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V89" s="3">
         <v>-200</v>
       </c>
       <c r="W89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="X89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,28 +6602,29 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,16 +6840,19 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6640,11 +6870,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,16 +7270,19 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -7048,22 +7294,22 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1700</v>
-      </c>
-      <c r="N100" s="3">
-        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
@@ -7072,40 +7318,43 @@
         <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>400</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7154,8 +7403,8 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>8</v>
@@ -7172,8 +7421,8 @@
       <c r="X101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
+      <c r="Y101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
@@ -7181,44 +7430,47 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>-300</v>
-      </c>
       <c r="K102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -7226,36 +7478,39 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>PDPTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,160 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
         <v>700</v>
       </c>
       <c r="F8" s="3">
+        <v>700</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>200</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
@@ -830,7 +833,7 @@
         <v>200</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
@@ -848,7 +851,7 @@
         <v>100</v>
       </c>
       <c r="Z8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA8" s="3">
         <v>200</v>
@@ -856,28 +859,31 @@
       <c r="AB8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>400</v>
       </c>
       <c r="F9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
       </c>
       <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
@@ -889,13 +895,13 @@
         <v>300</v>
       </c>
       <c r="M9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -910,7 +916,7 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -928,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="3">
         <v>100</v>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -948,11 +957,11 @@
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
@@ -966,11 +975,11 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
@@ -1011,13 +1020,16 @@
         <v>100</v>
       </c>
       <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
-      <c r="AB10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,11 +1236,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1229,17 +1248,17 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1253,8 +1272,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1283,11 +1302,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1357,8 +1379,8 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>8</v>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>8</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1418,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1405,7 +1431,7 @@
         <v>800</v>
       </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
@@ -1414,67 +1440,70 @@
         <v>600</v>
       </c>
       <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>400</v>
       </c>
       <c r="AB17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,31 +1511,31 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
@@ -1515,46 +1544,49 @@
         <v>-300</v>
       </c>
       <c r="P18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="Q18" s="3">
         <v>-500</v>
       </c>
       <c r="R18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="S18" s="3">
         <v>-600</v>
       </c>
       <c r="T18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-300</v>
       </c>
       <c r="X18" s="3">
         <v>-300</v>
       </c>
       <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,8 +1696,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,67 +1708,67 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-300</v>
       </c>
       <c r="O21" s="3">
         <v>-300</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
       </c>
       <c r="Z21" s="3">
         <v>-100</v>
@@ -1741,10 +1777,13 @@
         <v>-100</v>
       </c>
       <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1757,8 +1796,8 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1823,8 +1862,11 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1832,31 +1874,31 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
       </c>
       <c r="N23" s="3">
         <v>-300</v>
@@ -1865,46 +1907,49 @@
         <v>-300</v>
       </c>
       <c r="P23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="Q23" s="3">
         <v>-500</v>
       </c>
       <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-300</v>
       </c>
       <c r="X23" s="3">
         <v>-300</v>
       </c>
       <c r="Y23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2111,11 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2072,31 +2123,31 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
@@ -2105,46 +2156,49 @@
         <v>-300</v>
       </c>
       <c r="P26" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="Q26" s="3">
         <v>-500</v>
       </c>
       <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-300</v>
       </c>
       <c r="X26" s="3">
         <v>-300</v>
       </c>
       <c r="Y26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2152,31 +2206,31 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
       </c>
       <c r="N27" s="3">
         <v>-300</v>
@@ -2185,46 +2239,49 @@
         <v>-300</v>
       </c>
       <c r="P27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="Q27" s="3">
         <v>-500</v>
       </c>
       <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-300</v>
       </c>
       <c r="X27" s="3">
         <v>-300</v>
       </c>
       <c r="Y27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,8 +2692,11 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2632,31 +2704,31 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-300</v>
       </c>
       <c r="N33" s="3">
         <v>-300</v>
@@ -2665,46 +2737,49 @@
         <v>-300</v>
       </c>
       <c r="P33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="Q33" s="3">
         <v>-500</v>
       </c>
       <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-300</v>
       </c>
       <c r="X33" s="3">
         <v>-300</v>
       </c>
       <c r="Y33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2858,11 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2792,31 +2870,31 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-300</v>
       </c>
       <c r="N35" s="3">
         <v>-300</v>
@@ -2825,131 +2903,137 @@
         <v>-300</v>
       </c>
       <c r="P35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="Q35" s="3">
         <v>-500</v>
       </c>
       <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-300</v>
       </c>
       <c r="X35" s="3">
         <v>-300</v>
       </c>
       <c r="Y35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3093,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3017,7 +3103,7 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -3026,29 +3112,29 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -3059,37 +3145,40 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
-      </c>
-      <c r="U41" s="3">
-        <v>300</v>
       </c>
       <c r="V41" s="3">
         <v>300</v>
       </c>
       <c r="W41" s="3">
+        <v>300</v>
+      </c>
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
-      <c r="AA41" s="3">
-        <v>100</v>
-      </c>
       <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3257,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3177,10 +3269,10 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -3192,23 +3284,23 @@
         <v>200</v>
       </c>
       <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
@@ -3234,11 +3326,11 @@
         <v>100</v>
       </c>
       <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>500</v>
       </c>
-      <c r="Y43" s="3">
-        <v>100</v>
-      </c>
       <c r="Z43" s="3">
         <v>100</v>
       </c>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3382,7 +3480,7 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3391,25 +3489,28 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3417,7 +3518,7 @@
         <v>500</v>
       </c>
       <c r="E46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
@@ -3426,28 +3527,28 @@
         <v>400</v>
       </c>
       <c r="H46" s="3">
+        <v>400</v>
+      </c>
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1800</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
@@ -3459,37 +3560,40 @@
         <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
-      </c>
-      <c r="U46" s="3">
-        <v>400</v>
       </c>
       <c r="V46" s="3">
         <v>400</v>
       </c>
       <c r="W46" s="3">
+        <v>400</v>
+      </c>
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>500</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>300</v>
       </c>
       <c r="AB46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3595,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -3643,13 +3750,16 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3660,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -3699,7 +3809,7 @@
         <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T49" s="3">
         <v>200</v>
@@ -3720,16 +3830,19 @@
         <v>200</v>
       </c>
       <c r="Z49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA49" s="3">
         <v>300</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>400</v>
       </c>
       <c r="AB49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,13 +4170,16 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E54" s="3">
         <v>500</v>
@@ -4066,28 +4191,28 @@
         <v>500</v>
       </c>
       <c r="H54" s="3">
+        <v>500</v>
+      </c>
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1900</v>
-      </c>
-      <c r="O54" s="3">
-        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
@@ -4099,37 +4224,40 @@
         <v>400</v>
       </c>
       <c r="S54" s="3">
+        <v>400</v>
+      </c>
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
-      </c>
-      <c r="U54" s="3">
-        <v>600</v>
       </c>
       <c r="V54" s="3">
         <v>600</v>
       </c>
       <c r="W54" s="3">
+        <v>600</v>
+      </c>
+      <c r="X54" s="3">
         <v>900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>600</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>800</v>
       </c>
       <c r="AA54" s="3">
         <v>800</v>
       </c>
       <c r="AB54" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4212,7 +4342,7 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -4221,7 +4351,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -4230,10 +4360,10 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
@@ -4242,10 +4372,10 @@
         <v>400</v>
       </c>
       <c r="T57" s="3">
+        <v>400</v>
+      </c>
+      <c r="U57" s="3">
         <v>300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
@@ -4257,7 +4387,7 @@
         <v>200</v>
       </c>
       <c r="Y57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z57" s="3">
         <v>300</v>
@@ -4268,8 +4398,11 @@
       <c r="AB57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4279,8 +4412,8 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4304,25 +4437,25 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>400</v>
       </c>
       <c r="S58" s="3">
         <v>400</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4348,16 +4481,19 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -4381,22 +4517,22 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
-        <v>100</v>
-      </c>
       <c r="P59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
+      <c r="R59" s="3">
+        <v>200</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
@@ -4407,8 +4543,8 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4428,8 +4564,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4437,58 +4576,58 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>500</v>
       </c>
       <c r="G60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
       </c>
       <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
       </c>
       <c r="M60" s="3">
+        <v>300</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>800</v>
       </c>
       <c r="S60" s="3">
         <v>800</v>
       </c>
       <c r="T60" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="U60" s="3">
         <v>300</v>
       </c>
       <c r="V60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
@@ -4497,19 +4636,22 @@
         <v>200</v>
       </c>
       <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4559,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5062,11 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4917,55 +5074,55 @@
         <v>600</v>
       </c>
       <c r="E66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F66" s="3">
         <v>500</v>
       </c>
       <c r="G66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
       </c>
       <c r="I66" s="3">
+        <v>400</v>
+      </c>
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
       </c>
       <c r="M66" s="3">
+        <v>300</v>
+      </c>
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
-      </c>
-      <c r="U66" s="3">
-        <v>300</v>
       </c>
       <c r="V66" s="3">
         <v>300</v>
@@ -4977,19 +5134,22 @@
         <v>300</v>
       </c>
       <c r="Y66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z66" s="3">
         <v>400</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>500</v>
       </c>
       <c r="AA66" s="3">
         <v>500</v>
       </c>
       <c r="AB66" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="E72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="F72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="G72" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="H72" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="I72" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-6300</v>
       </c>
-      <c r="J72" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="S72" s="3">
         <v>-5200</v>
       </c>
-      <c r="O72" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,8 +5840,11 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5667,79 +5852,82 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I76" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J76" s="3">
+        <v>400</v>
+      </c>
+      <c r="K76" s="3">
         <v>700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
-        <v>100</v>
-      </c>
       <c r="U76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V76" s="3">
         <v>300</v>
       </c>
       <c r="W76" s="3">
+        <v>300</v>
+      </c>
+      <c r="X76" s="3">
         <v>600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>800</v>
       </c>
-      <c r="Y76" s="3">
-        <v>100</v>
-      </c>
       <c r="Z76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AA76" s="3">
         <v>300</v>
       </c>
       <c r="AB76" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC76" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6006,99 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5912,31 +6106,31 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-300</v>
       </c>
       <c r="N81" s="3">
         <v>-300</v>
@@ -5945,46 +6139,49 @@
         <v>-300</v>
       </c>
       <c r="P81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="Q81" s="3">
         <v>-500</v>
       </c>
       <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-300</v>
       </c>
       <c r="X81" s="3">
         <v>-300</v>
       </c>
       <c r="Y81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6085,16 +6283,19 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
         <v>200</v>
       </c>
-      <c r="AA83" s="3">
-        <v>0</v>
-      </c>
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,40 +6706,43 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
@@ -6535,10 +6751,10 @@
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-300</v>
       </c>
       <c r="R89" s="3">
         <v>-300</v>
@@ -6547,34 +6763,37 @@
         <v>-300</v>
       </c>
       <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-200</v>
       </c>
       <c r="W89" s="3">
         <v>-200</v>
       </c>
       <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6614,20 +6834,20 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,19 +7069,22 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -6873,11 +7102,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,19 +7515,22 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -7297,22 +7542,22 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1700</v>
-      </c>
-      <c r="O100" s="3">
-        <v>200</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
@@ -7321,40 +7566,43 @@
         <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>400</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>300</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7406,8 +7654,8 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>8</v>
@@ -7424,8 +7672,8 @@
       <c r="Y101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
+      <c r="Z101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA101" s="3">
         <v>0</v>
@@ -7433,47 +7681,50 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -7481,36 +7732,39 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
       <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>PDPTF</t>
   </si>
@@ -868,10 +868,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
@@ -1431,7 +1431,7 @@
         <v>800</v>
       </c>
       <c r="F17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
@@ -1520,7 +1520,7 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
@@ -3515,7 +3515,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E46" s="3">
         <v>500</v>
@@ -4499,7 +4499,7 @@
         <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -4576,10 +4576,10 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
@@ -5074,10 +5074,10 @@
         <v>600</v>
       </c>
       <c r="E66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
@@ -5517,25 +5517,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="H72" s="3">
         <v>-6600</v>
       </c>
-      <c r="E72" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-6000</v>
       </c>
       <c r="K72" s="3">
         <v>-6100</v>
@@ -5867,7 +5867,7 @@
         <v>200</v>
       </c>
       <c r="J76" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K76" s="3">
         <v>700</v>
@@ -6733,7 +6733,7 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
@@ -6828,14 +6828,14 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6843,11 +6843,11 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>PDPTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,135 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42704</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
         <v>700</v>
@@ -794,19 +802,19 @@
         <v>700</v>
       </c>
       <c r="G8" s="3">
+        <v>700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>700</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>300</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
       </c>
       <c r="K8" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
@@ -815,16 +823,16 @@
         <v>500</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
@@ -836,10 +844,10 @@
         <v>200</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W8" s="3">
         <v>100</v>
@@ -854,42 +862,48 @@
         <v>100</v>
       </c>
       <c r="AA8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
@@ -898,17 +912,17 @@
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>100</v>
-      </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
@@ -919,10 +933,10 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
@@ -937,37 +951,43 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
       </c>
       <c r="G10" s="3">
+        <v>300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
@@ -978,14 +998,14 @@
         <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
@@ -1023,13 +1043,19 @@
         <v>100</v>
       </c>
       <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3">
         <v>200</v>
       </c>
-      <c r="AC10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1239,32 +1279,32 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1275,11 +1315,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1305,11 +1345,17 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1382,17 +1428,23 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>8</v>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,13 +1471,15 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
@@ -1434,31 +1488,31 @@
         <v>800</v>
       </c>
       <c r="G17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
         <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>900</v>
       </c>
       <c r="N17" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="O17" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
@@ -1467,126 +1521,138 @@
         <v>600</v>
       </c>
       <c r="R17" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="S17" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T17" s="3">
         <v>700</v>
       </c>
       <c r="U17" s="3">
+        <v>800</v>
+      </c>
+      <c r="V17" s="3">
+        <v>700</v>
+      </c>
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>500</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>300</v>
       </c>
       <c r="AA17" s="3">
         <v>500</v>
       </c>
       <c r="AB17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="L18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-500</v>
       </c>
       <c r="N18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-800</v>
       </c>
       <c r="X18" s="3">
         <v>-300</v>
       </c>
       <c r="Y18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-200</v>
       </c>
       <c r="AA18" s="3">
         <v>-300</v>
       </c>
       <c r="AB18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AC18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1699,91 +1767,103 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-400</v>
       </c>
       <c r="M21" s="3">
         <v>-500</v>
       </c>
       <c r="N21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-600</v>
       </c>
       <c r="T21" s="3">
         <v>-500</v>
       </c>
       <c r="U21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W21" s="3">
         <v>-1000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-100</v>
       </c>
       <c r="AB21" s="3">
         <v>-100</v>
       </c>
       <c r="AC21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1799,11 +1879,11 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1865,79 +1945,85 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-400</v>
       </c>
       <c r="M23" s="3">
         <v>-500</v>
       </c>
       <c r="N23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O23" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-600</v>
       </c>
       <c r="T23" s="3">
         <v>-500</v>
       </c>
       <c r="U23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-800</v>
       </c>
       <c r="X23" s="3">
         <v>-300</v>
       </c>
       <c r="Y23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-200</v>
       </c>
       <c r="AA23" s="3">
         <v>-300</v>
@@ -1948,8 +2034,14 @@
       <c r="AC23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,79 +2212,85 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-400</v>
       </c>
       <c r="M26" s="3">
         <v>-500</v>
       </c>
       <c r="N26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O26" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-600</v>
       </c>
       <c r="T26" s="3">
         <v>-500</v>
       </c>
       <c r="U26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-800</v>
       </c>
       <c r="X26" s="3">
         <v>-300</v>
       </c>
       <c r="Y26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-200</v>
       </c>
       <c r="AA26" s="3">
         <v>-300</v>
@@ -2197,79 +2301,85 @@
       <c r="AC26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
       </c>
       <c r="M27" s="3">
         <v>-500</v>
       </c>
       <c r="N27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O27" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-600</v>
       </c>
       <c r="T27" s="3">
         <v>-500</v>
       </c>
       <c r="U27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-800</v>
       </c>
       <c r="X27" s="3">
         <v>-300</v>
       </c>
       <c r="Y27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-200</v>
       </c>
       <c r="AA27" s="3">
         <v>-300</v>
@@ -2280,8 +2390,14 @@
       <c r="AC27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2695,79 +2835,85 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-400</v>
       </c>
       <c r="M33" s="3">
         <v>-500</v>
       </c>
       <c r="N33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O33" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-500</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-600</v>
       </c>
       <c r="T33" s="3">
         <v>-500</v>
       </c>
       <c r="U33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-800</v>
       </c>
       <c r="X33" s="3">
         <v>-300</v>
       </c>
       <c r="Y33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-200</v>
       </c>
       <c r="AA33" s="3">
         <v>-300</v>
@@ -2778,8 +2924,14 @@
       <c r="AC33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,79 +3013,85 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-400</v>
       </c>
       <c r="M35" s="3">
         <v>-500</v>
       </c>
       <c r="N35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O35" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-500</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-600</v>
       </c>
       <c r="T35" s="3">
         <v>-500</v>
       </c>
       <c r="U35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-800</v>
       </c>
       <c r="X35" s="3">
         <v>-300</v>
       </c>
       <c r="Y35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-200</v>
       </c>
       <c r="AA35" s="3">
         <v>-300</v>
@@ -2944,96 +3102,108 @@
       <c r="AC35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42704</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,53 +3266,55 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -3148,37 +3322,43 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>300</v>
       </c>
       <c r="W41" s="3">
+        <v>200</v>
+      </c>
+      <c r="X41" s="3">
         <v>300</v>
-      </c>
-      <c r="X41" s="3">
-        <v>500</v>
       </c>
       <c r="Y41" s="3">
         <v>300</v>
       </c>
       <c r="Z41" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AA41" s="3">
         <v>300</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,13 +3440,19 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -3278,7 +3464,7 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
@@ -3287,16 +3473,16 @@
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
@@ -3305,7 +3491,7 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -3329,22 +3515,28 @@
         <v>100</v>
       </c>
       <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
         <v>500</v>
       </c>
-      <c r="Z43" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>100</v>
-      </c>
       <c r="AB43" s="3">
         <v>100</v>
       </c>
       <c r="AC43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3483,78 +3681,84 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>400</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
       </c>
       <c r="I46" s="3">
+        <v>400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>400</v>
+      </c>
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1800</v>
-      </c>
-      <c r="P46" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
@@ -3563,37 +3767,43 @@
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>900</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>300</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>500</v>
       </c>
       <c r="AB46" s="3">
         <v>300</v>
       </c>
       <c r="AC46" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3885,14 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3705,16 +3921,16 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3753,13 +3969,19 @@
         <v>0</v>
       </c>
       <c r="AB48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3776,10 +3998,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -3812,10 +4034,10 @@
         <v>100</v>
       </c>
       <c r="T49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V49" s="3">
         <v>200</v>
@@ -3833,16 +4055,22 @@
         <v>200</v>
       </c>
       <c r="AA49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC49" s="3">
         <v>300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,19 +4419,25 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
         <v>500</v>
       </c>
       <c r="F54" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G54" s="3">
         <v>500</v>
@@ -4194,31 +4446,31 @@
         <v>500</v>
       </c>
       <c r="I54" s="3">
+        <v>500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>500</v>
+      </c>
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>400</v>
@@ -4227,37 +4479,43 @@
         <v>400</v>
       </c>
       <c r="T54" s="3">
+        <v>400</v>
+      </c>
+      <c r="U54" s="3">
+        <v>400</v>
+      </c>
+      <c r="V54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,13 +4578,15 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -4336,52 +4598,52 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
       </c>
       <c r="U57" s="3">
+        <v>400</v>
+      </c>
+      <c r="V57" s="3">
+        <v>400</v>
+      </c>
+      <c r="W57" s="3">
         <v>300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>200</v>
-      </c>
-      <c r="W57" s="3">
-        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
@@ -4390,10 +4652,10 @@
         <v>200</v>
       </c>
       <c r="Z57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB57" s="3">
         <v>300</v>
@@ -4401,19 +4663,25 @@
       <c r="AC57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4440,29 +4708,29 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
@@ -4484,28 +4752,34 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
-        <v>200</v>
-      </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -4520,7 +4794,7 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -4532,13 +4806,13 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
+      <c r="T59" s="3">
+        <v>200</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
@@ -4546,11 +4820,11 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4567,16 +4841,22 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
@@ -4585,13 +4865,13 @@
         <v>500</v>
       </c>
       <c r="H60" s="3">
+        <v>600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>500</v>
+      </c>
+      <c r="J60" s="3">
         <v>400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
@@ -4600,49 +4880,49 @@
         <v>300</v>
       </c>
       <c r="M60" s="3">
+        <v>400</v>
+      </c>
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
-      </c>
-      <c r="W60" s="3">
-        <v>200</v>
-      </c>
-      <c r="X60" s="3">
-        <v>200</v>
       </c>
       <c r="Y60" s="3">
         <v>200</v>
       </c>
       <c r="Z60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AA60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB60" s="3">
         <v>400</v>
@@ -4650,8 +4930,14 @@
       <c r="AC60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4704,10 +4990,10 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>100</v>
@@ -4733,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,16 +5375,22 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F66" s="3">
         <v>600</v>
@@ -5083,13 +5399,13 @@
         <v>500</v>
       </c>
       <c r="H66" s="3">
+        <v>600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>500</v>
+      </c>
+      <c r="J66" s="3">
         <v>400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
@@ -5098,37 +5414,37 @@
         <v>300</v>
       </c>
       <c r="M66" s="3">
+        <v>400</v>
+      </c>
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
-      </c>
-      <c r="V66" s="3">
-        <v>300</v>
-      </c>
-      <c r="W66" s="3">
-        <v>300</v>
       </c>
       <c r="X66" s="3">
         <v>300</v>
@@ -5137,19 +5453,25 @@
         <v>300</v>
       </c>
       <c r="Z66" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB66" s="3">
         <v>400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6700</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-6800</v>
       </c>
       <c r="G72" s="3">
         <v>-6700</v>
       </c>
       <c r="H72" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J72" s="3">
         <v>-6600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-6300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-5900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-5200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-4800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-4300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-4100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-3900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
       </c>
       <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>100</v>
-      </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>100</v>
+      </c>
+      <c r="K76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3">
-        <v>100</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
+        <v>100</v>
+      </c>
+      <c r="X76" s="3">
         <v>300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>800</v>
       </c>
-      <c r="Z76" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC76" s="3">
         <v>300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,167 +6387,179 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42704</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-400</v>
       </c>
       <c r="M81" s="3">
         <v>-500</v>
       </c>
       <c r="N81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O81" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-500</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-600</v>
       </c>
       <c r="T81" s="3">
         <v>-500</v>
       </c>
       <c r="U81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-800</v>
       </c>
       <c r="X81" s="3">
         <v>-300</v>
       </c>
       <c r="Y81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-200</v>
       </c>
       <c r="AA81" s="3">
         <v>-300</v>
@@ -6180,8 +6570,14 @@
       <c r="AC81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6286,16 +6684,22 @@
         <v>0</v>
       </c>
       <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
         <v>200</v>
       </c>
-      <c r="AB83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6718,55 +7152,55 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-300</v>
       </c>
       <c r="T89" s="3">
         <v>-300</v>
       </c>
       <c r="U89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V89" s="3">
         <v>-300</v>
@@ -6775,25 +7209,31 @@
         <v>-200</v>
       </c>
       <c r="X89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>0</v>
       </c>
       <c r="AB89" s="3">
         <v>-100</v>
       </c>
       <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,26 +7526,32 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -7105,14 +7565,14 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -7155,8 +7615,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,25 +8004,31 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -7545,64 +8037,70 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1700</v>
-      </c>
-      <c r="P100" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>200</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T100" s="3">
+        <v>200</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>300</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7657,11 +8155,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>8</v>
@@ -7675,17 +8173,23 @@
       <c r="Z101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="3">
-        <v>0</v>
+      <c r="AA101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7693,19 +8197,19 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>-200</v>
@@ -7714,57 +8218,63 @@
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA102" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AB102" s="3">
         <v>-100</v>
       </c>
       <c r="AC102" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PDPTF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>45077</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44985</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44895</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44804</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44712</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43343</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43251</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43159</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43069</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42978</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42886</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42794</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42704</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,7 +800,7 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F8" s="3">
         <v>700</v>
@@ -808,34 +812,34 @@
         <v>700</v>
       </c>
       <c r="I8" s="3">
+        <v>700</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>200</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
@@ -850,7 +854,7 @@
         <v>200</v>
       </c>
       <c r="W8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X8" s="3">
         <v>100</v>
@@ -868,7 +872,7 @@
         <v>100</v>
       </c>
       <c r="AC8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD8" s="3">
         <v>200</v>
@@ -876,19 +880,22 @@
       <c r="AE8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>500</v>
       </c>
       <c r="G9" s="3">
         <v>500</v>
@@ -897,16 +904,16 @@
         <v>400</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
@@ -918,13 +925,13 @@
         <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -939,7 +946,7 @@
         <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
@@ -957,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="3">
         <v>100</v>
@@ -965,19 +972,22 @@
       <c r="AE9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
@@ -986,11 +996,11 @@
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
@@ -1004,11 +1014,11 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
@@ -1049,13 +1059,16 @@
         <v>100</v>
       </c>
       <c r="AD10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="3">
         <v>200</v>
       </c>
-      <c r="AE10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1285,11 +1305,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1297,17 +1317,17 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1321,8 +1341,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1351,11 +1371,14 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1434,8 +1457,8 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>8</v>
+      <c r="AC15" s="3">
+        <v>0</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>8</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1482,7 +1509,7 @@
         <v>700</v>
       </c>
       <c r="E17" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
@@ -1494,7 +1521,7 @@
         <v>800</v>
       </c>
       <c r="I17" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
@@ -1503,67 +1530,70 @@
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>500</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>400</v>
       </c>
       <c r="AE17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1574,19 +1604,19 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
@@ -1595,16 +1625,16 @@
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
@@ -1613,46 +1643,49 @@
         <v>-300</v>
       </c>
       <c r="S18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="T18" s="3">
         <v>-500</v>
       </c>
       <c r="U18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="V18" s="3">
         <v>-600</v>
       </c>
       <c r="W18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-300</v>
       </c>
       <c r="AA18" s="3">
         <v>-300</v>
       </c>
       <c r="AB18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1785,73 +1822,73 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
       <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-300</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>-100</v>
       </c>
       <c r="AC21" s="3">
         <v>-100</v>
@@ -1860,10 +1897,13 @@
         <v>-100</v>
       </c>
       <c r="AE21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1885,8 +1925,8 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1951,49 +1991,52 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
@@ -2002,46 +2045,49 @@
         <v>-300</v>
       </c>
       <c r="S23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="T23" s="3">
         <v>-500</v>
       </c>
       <c r="U23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-300</v>
       </c>
       <c r="AA23" s="3">
         <v>-300</v>
       </c>
       <c r="AB23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,49 +2267,52 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
@@ -2269,87 +2321,90 @@
         <v>-300</v>
       </c>
       <c r="S26" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="T26" s="3">
         <v>-500</v>
       </c>
       <c r="U26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-300</v>
       </c>
       <c r="AA26" s="3">
         <v>-300</v>
       </c>
       <c r="AB26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-300</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
@@ -2358,46 +2413,49 @@
         <v>-300</v>
       </c>
       <c r="S27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="T27" s="3">
         <v>-500</v>
       </c>
       <c r="U27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-300</v>
       </c>
       <c r="AA27" s="3">
         <v>-300</v>
       </c>
       <c r="AB27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2841,49 +2911,52 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-300</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
@@ -2892,46 +2965,49 @@
         <v>-300</v>
       </c>
       <c r="S33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="T33" s="3">
         <v>-500</v>
       </c>
       <c r="U33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-300</v>
       </c>
       <c r="AA33" s="3">
         <v>-300</v>
       </c>
       <c r="AB33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,49 +3095,52 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-300</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
@@ -3070,140 +3149,146 @@
         <v>-300</v>
       </c>
       <c r="S35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="T35" s="3">
         <v>-500</v>
       </c>
       <c r="U35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-300</v>
       </c>
       <c r="AA35" s="3">
         <v>-300</v>
       </c>
       <c r="AB35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>45077</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44985</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44895</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44804</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44712</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43343</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43251</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43159</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43069</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42978</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42886</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42794</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42704</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3280,13 +3367,13 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -3295,29 +3382,29 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1600</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -3328,37 +3415,40 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
-      </c>
-      <c r="X41" s="3">
-        <v>300</v>
       </c>
       <c r="Y41" s="3">
         <v>300</v>
       </c>
       <c r="Z41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA41" s="3">
         <v>500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>300</v>
       </c>
-      <c r="AD41" s="3">
-        <v>100</v>
-      </c>
       <c r="AE41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3458,16 +3551,16 @@
         <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
@@ -3479,23 +3572,23 @@
         <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
@@ -3521,11 +3614,11 @@
         <v>100</v>
       </c>
       <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB43" s="3">
         <v>500</v>
       </c>
-      <c r="AB43" s="3">
-        <v>100</v>
-      </c>
       <c r="AC43" s="3">
         <v>100</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3687,7 +3786,7 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3696,25 +3795,28 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>100</v>
       </c>
       <c r="AB45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC45" s="3">
         <v>0</v>
       </c>
       <c r="AD45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3725,13 +3827,13 @@
         <v>400</v>
       </c>
       <c r="F46" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>500</v>
       </c>
       <c r="H46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
@@ -3740,28 +3842,28 @@
         <v>400</v>
       </c>
       <c r="K46" s="3">
+        <v>400</v>
+      </c>
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
@@ -3773,37 +3875,40 @@
         <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
-      </c>
-      <c r="X46" s="3">
-        <v>400</v>
       </c>
       <c r="Y46" s="3">
         <v>400</v>
       </c>
       <c r="Z46" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA46" s="3">
         <v>700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>500</v>
-      </c>
-      <c r="AD46" s="3">
-        <v>300</v>
       </c>
       <c r="AE46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3927,13 +4035,13 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3975,13 +4083,16 @@
         <v>0</v>
       </c>
       <c r="AD48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4004,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -4040,7 +4151,7 @@
         <v>100</v>
       </c>
       <c r="V49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W49" s="3">
         <v>200</v>
@@ -4061,16 +4172,19 @@
         <v>200</v>
       </c>
       <c r="AC49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD49" s="3">
         <v>300</v>
-      </c>
-      <c r="AD49" s="3">
-        <v>400</v>
       </c>
       <c r="AE49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4434,13 +4560,13 @@
         <v>500</v>
       </c>
       <c r="E54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F54" s="3">
+        <v>400</v>
+      </c>
+      <c r="G54" s="3">
         <v>600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>500</v>
       </c>
       <c r="H54" s="3">
         <v>500</v>
@@ -4452,28 +4578,28 @@
         <v>500</v>
       </c>
       <c r="K54" s="3">
+        <v>500</v>
+      </c>
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1900</v>
-      </c>
-      <c r="R54" s="3">
-        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>400</v>
@@ -4485,37 +4611,40 @@
         <v>400</v>
       </c>
       <c r="V54" s="3">
+        <v>400</v>
+      </c>
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>500</v>
-      </c>
-      <c r="X54" s="3">
-        <v>600</v>
       </c>
       <c r="Y54" s="3">
         <v>600</v>
       </c>
       <c r="Z54" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA54" s="3">
         <v>900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>600</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>800</v>
       </c>
       <c r="AD54" s="3">
         <v>800</v>
       </c>
       <c r="AE54" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4589,7 +4720,7 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -4604,7 +4735,7 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -4613,7 +4744,7 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -4622,7 +4753,7 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -4631,10 +4762,10 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
@@ -4643,10 +4774,10 @@
         <v>400</v>
       </c>
       <c r="W57" s="3">
+        <v>400</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
-      </c>
-      <c r="X57" s="3">
-        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
@@ -4658,7 +4789,7 @@
         <v>200</v>
       </c>
       <c r="AB57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC57" s="3">
         <v>300</v>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4714,25 +4848,25 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
-      </c>
-      <c r="U58" s="3">
-        <v>400</v>
       </c>
       <c r="V58" s="3">
         <v>400</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4758,8 +4892,11 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4770,13 +4907,13 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -4800,22 +4937,22 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
-        <v>100</v>
-      </c>
       <c r="S59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
+      <c r="U59" s="3">
+        <v>200</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
@@ -4826,8 +4963,8 @@
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4856,67 +4996,67 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>600</v>
       </c>
       <c r="I60" s="3">
         <v>500</v>
       </c>
       <c r="J60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
       </c>
       <c r="L60" s="3">
+        <v>400</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
       </c>
       <c r="P60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
-      </c>
-      <c r="U60" s="3">
-        <v>800</v>
       </c>
       <c r="V60" s="3">
         <v>800</v>
       </c>
       <c r="W60" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="X60" s="3">
         <v>300</v>
       </c>
       <c r="Y60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z60" s="3">
         <v>200</v>
@@ -4925,19 +5065,22 @@
         <v>200</v>
       </c>
       <c r="AB60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC60" s="3">
         <v>400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4996,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>100</v>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,8 +5536,11 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5390,64 +5548,64 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>600</v>
       </c>
       <c r="I66" s="3">
         <v>500</v>
       </c>
       <c r="J66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
       </c>
       <c r="L66" s="3">
+        <v>400</v>
+      </c>
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>300</v>
       </c>
       <c r="O66" s="3">
         <v>300</v>
       </c>
       <c r="P66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
-      </c>
-      <c r="X66" s="3">
-        <v>300</v>
       </c>
       <c r="Y66" s="3">
         <v>300</v>
@@ -5459,19 +5617,22 @@
         <v>300</v>
       </c>
       <c r="AB66" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC66" s="3">
         <v>400</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>500</v>
       </c>
       <c r="AD66" s="3">
         <v>500</v>
       </c>
       <c r="AE66" s="3">
+        <v>500</v>
+      </c>
+      <c r="AF66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="E72" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="F72" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="G72" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="H72" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="I72" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="J72" s="3">
         <v>-6600</v>
       </c>
       <c r="K72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="L72" s="3">
         <v>-6400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-2800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-2700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6224,7 +6410,7 @@
         <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -6233,79 +6419,82 @@
         <v>0</v>
       </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
-      <c r="W76" s="3">
-        <v>100</v>
-      </c>
       <c r="X76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Y76" s="3">
         <v>300</v>
       </c>
       <c r="Z76" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA76" s="3">
         <v>600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>800</v>
       </c>
-      <c r="AB76" s="3">
-        <v>100</v>
-      </c>
       <c r="AC76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AD76" s="3">
         <v>300</v>
       </c>
       <c r="AE76" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF76" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,143 +6582,149 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>45077</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44985</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44895</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44804</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44712</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43343</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43251</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43159</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43069</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42978</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42886</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42794</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42704</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-300</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
@@ -6538,46 +6733,49 @@
         <v>-300</v>
       </c>
       <c r="S81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="T81" s="3">
         <v>-500</v>
       </c>
       <c r="U81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-300</v>
       </c>
       <c r="AA81" s="3">
         <v>-300</v>
       </c>
       <c r="AB81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6690,16 +6889,19 @@
         <v>0</v>
       </c>
       <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
         <v>200</v>
       </c>
-      <c r="AD83" s="3">
-        <v>0</v>
-      </c>
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7152,40 +7369,40 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
@@ -7194,10 +7411,10 @@
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-300</v>
       </c>
       <c r="U89" s="3">
         <v>-300</v>
@@ -7206,34 +7423,37 @@
         <v>-300</v>
       </c>
       <c r="W89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-200</v>
       </c>
       <c r="Z89" s="3">
         <v>-200</v>
       </c>
       <c r="AA89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7546,14 +7776,14 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -7571,11 +7801,11 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,13 +8253,16 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -8024,11 +8270,11 @@
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -8043,22 +8289,22 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1700</v>
-      </c>
-      <c r="R100" s="3">
-        <v>200</v>
       </c>
       <c r="S100" s="3">
         <v>200</v>
@@ -8067,40 +8313,43 @@
         <v>200</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
         <v>400</v>
       </c>
       <c r="AB100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>300</v>
       </c>
-      <c r="AD100" s="3">
-        <v>0</v>
-      </c>
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8161,8 +8410,8 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>8</v>
+      <c r="W101" s="3">
+        <v>0</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>8</v>
@@ -8179,8 +8428,8 @@
       <c r="AB101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
+      <c r="AC101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD101" s="3">
         <v>0</v>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8197,47 +8449,47 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1600</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -8245,36 +8497,39 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
-        <v>100</v>
-      </c>
       <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-200</v>
       </c>
     </row>
